--- a/Analyse resultats.xlsx
+++ b/Analyse resultats.xlsx
@@ -86,8 +86,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -104,6 +104,1095 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analyse!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Weed id as Background</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Analyse!$C$2:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>2.46124267578125E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9580078125E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.50732421875E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2939453125E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3651123046875E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9263916015625E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.202392578125E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.683349609375E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7200927734375E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.47247314453125E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.312255859375E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5999755859375E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.806640625E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.12762451171875E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.568359375E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.58941650390625E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4617919921875E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.35498046875E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.41754150390625E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.81597900390625E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.207275390625E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.300048828125E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.55682373046875E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.13983154296875E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.791259765625E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.5531005859375E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.48388671875E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.46331787109375E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.03759765625E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.5166015625E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-52F3-460D-A411-191368759B96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analyse!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Background id as Weed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Analyse!$D$2:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>7.01904296875E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1444091796875E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.01416015625E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0059814453125E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.40869140625E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.312255859375E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.89208984375E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.57763671875E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1514892578125E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0223388671875E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.119873046875E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7242431640625E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.730224609375E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.373291015625E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5400390625E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5482177734375E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.645751953125E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.1552734375E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.0517578125E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.3885498046875E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.03759765625E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.7008056640625E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.918212890625E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.340576171875E-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.035400390625E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.373291015625E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1138916015625E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.166748046875E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0223388671875E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-52F3-460D-A411-191368759B96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1639548720"/>
+        <c:axId val="1637032272"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1639548720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1637032272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1637032272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1639548720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1323974</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37432135-EBC1-4024-A0E9-53D72D3226FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -372,7 +1461,7 @@
   <dimension ref="A2:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -383,30 +1472,30 @@
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>4336</v>
+        <v>3866</v>
       </c>
       <c r="B2">
-        <v>59684</v>
+        <v>60011</v>
       </c>
       <c r="C2">
-        <v>1143</v>
+        <v>1613</v>
       </c>
       <c r="D2">
-        <v>373</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>8705</v>
+        <v>8802</v>
       </c>
       <c r="B3">
-        <v>56115</v>
+        <v>56203</v>
       </c>
       <c r="C3">
-        <v>553</v>
+        <v>456</v>
       </c>
       <c r="D3">
-        <v>163</v>
+        <v>75</v>
       </c>
       <c r="J3" t="s">
         <v>0</v>
@@ -424,394 +1513,394 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>9075</v>
+        <v>9364</v>
       </c>
       <c r="B4">
-        <v>55321</v>
+        <v>55548</v>
       </c>
       <c r="C4">
-        <v>781</v>
+        <v>492</v>
       </c>
       <c r="D4">
-        <v>359</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>9885</v>
+        <v>9791</v>
       </c>
       <c r="B5">
-        <v>54426</v>
+        <v>54700</v>
       </c>
       <c r="C5">
-        <v>754</v>
+        <v>848</v>
       </c>
       <c r="D5">
-        <v>471</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1578</v>
+        <v>1698</v>
       </c>
       <c r="B6">
-        <v>63613</v>
+        <v>63641</v>
       </c>
       <c r="C6">
-        <v>275</v>
+        <v>155</v>
       </c>
       <c r="D6">
-        <v>70</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>9435</v>
+        <v>9687</v>
       </c>
       <c r="B7">
-        <v>55235</v>
+        <v>55178</v>
       </c>
       <c r="C7">
-        <v>837</v>
+        <v>585</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2165</v>
+        <v>2265</v>
       </c>
       <c r="B8">
-        <v>62204</v>
+        <v>62359</v>
       </c>
       <c r="C8">
-        <v>888</v>
+        <v>788</v>
       </c>
       <c r="D8">
-        <v>279</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>752</v>
+        <v>769</v>
       </c>
       <c r="B9">
-        <v>64312</v>
+        <v>64326</v>
       </c>
       <c r="C9">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>11470</v>
+        <v>9803</v>
       </c>
       <c r="B10">
-        <v>50370</v>
+        <v>53154</v>
       </c>
       <c r="C10">
-        <v>771</v>
+        <v>2438</v>
       </c>
       <c r="D10">
-        <v>2925</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1690</v>
+        <v>1844</v>
       </c>
       <c r="B11">
-        <v>62646</v>
+        <v>62660</v>
       </c>
       <c r="C11">
-        <v>1119</v>
+        <v>965</v>
       </c>
       <c r="D11">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2778</v>
+        <v>3036</v>
       </c>
       <c r="B12">
-        <v>62270</v>
+        <v>62387</v>
       </c>
       <c r="C12">
-        <v>344</v>
+        <v>86</v>
       </c>
       <c r="D12">
-        <v>144</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="B13">
-        <v>64702</v>
+        <v>64714</v>
       </c>
       <c r="C13">
-        <v>416</v>
+        <v>367</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>5059</v>
+        <v>5190</v>
       </c>
       <c r="B14">
-        <v>57439</v>
+        <v>59049</v>
       </c>
       <c r="C14">
-        <v>1315</v>
+        <v>1184</v>
       </c>
       <c r="D14">
-        <v>1723</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>8498</v>
+        <v>8571</v>
       </c>
       <c r="B15">
-        <v>55785</v>
+        <v>56195</v>
       </c>
       <c r="C15">
-        <v>812</v>
+        <v>739</v>
       </c>
       <c r="D15">
-        <v>441</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1864</v>
+        <v>2041</v>
       </c>
       <c r="B16">
-        <v>62960</v>
+        <v>62990</v>
       </c>
       <c r="C16">
-        <v>673</v>
+        <v>496</v>
       </c>
       <c r="D16">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>19270</v>
+        <v>18473</v>
       </c>
       <c r="B17">
-        <v>44454</v>
+        <v>45134</v>
       </c>
       <c r="C17">
-        <v>900</v>
+        <v>1697</v>
       </c>
       <c r="D17">
-        <v>912</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>10402</v>
+        <v>10561</v>
       </c>
       <c r="B18">
-        <v>53759</v>
+        <v>53850</v>
       </c>
       <c r="C18">
-        <v>1117</v>
+        <v>958</v>
       </c>
       <c r="D18">
-        <v>258</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>934</v>
+        <v>1283</v>
       </c>
       <c r="B19">
-        <v>63355</v>
+        <v>63328</v>
       </c>
       <c r="C19">
-        <v>1237</v>
+        <v>888</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>3283</v>
+        <v>3484</v>
       </c>
       <c r="B20">
-        <v>60939</v>
+        <v>61063</v>
       </c>
       <c r="C20">
-        <v>1130</v>
+        <v>929</v>
       </c>
       <c r="D20">
-        <v>184</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>9611</v>
+        <v>4835</v>
       </c>
       <c r="B21">
-        <v>51828</v>
+        <v>54266</v>
       </c>
       <c r="C21">
-        <v>1657</v>
+        <v>6433</v>
       </c>
       <c r="D21">
-        <v>2440</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>4388</v>
+        <v>3135</v>
       </c>
       <c r="B22">
-        <v>57923</v>
+        <v>58242</v>
       </c>
       <c r="C22">
-        <v>2815</v>
+        <v>4068</v>
       </c>
       <c r="D22">
-        <v>410</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>7063</v>
+        <v>6899</v>
       </c>
       <c r="B23">
-        <v>57398</v>
+        <v>57717</v>
       </c>
       <c r="C23">
-        <v>688</v>
+        <v>852</v>
       </c>
       <c r="D23">
-        <v>387</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>13260</v>
+        <v>12435</v>
       </c>
       <c r="B24">
-        <v>49326</v>
+        <v>50593</v>
       </c>
       <c r="C24">
-        <v>1506</v>
+        <v>2331</v>
       </c>
       <c r="D24">
-        <v>1444</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>3216</v>
+        <v>3377</v>
       </c>
       <c r="B25">
-        <v>61324</v>
+        <v>61347</v>
       </c>
       <c r="C25">
-        <v>908</v>
+        <v>747</v>
       </c>
       <c r="D25">
-        <v>88</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>4516</v>
+        <v>4656</v>
       </c>
       <c r="B26">
-        <v>60438</v>
+        <v>60531</v>
       </c>
       <c r="C26">
-        <v>454</v>
+        <v>314</v>
       </c>
       <c r="D26">
-        <v>128</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>3193</v>
+        <v>3126</v>
       </c>
       <c r="B27">
-        <v>61791</v>
+        <v>61882</v>
       </c>
       <c r="C27">
-        <v>428</v>
+        <v>495</v>
       </c>
       <c r="D27">
-        <v>124</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>9185</v>
+        <v>9061</v>
       </c>
       <c r="B28">
-        <v>55626</v>
+        <v>55829</v>
       </c>
       <c r="C28">
-        <v>432</v>
+        <v>556</v>
       </c>
       <c r="D28">
-        <v>293</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>6168</v>
+        <v>6004</v>
       </c>
       <c r="B29">
-        <v>58202</v>
+        <v>58500</v>
       </c>
       <c r="C29">
-        <v>795</v>
+        <v>959</v>
       </c>
       <c r="D29">
-        <v>371</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>13835</v>
+        <v>14003</v>
       </c>
       <c r="B30">
-        <v>49586</v>
+        <v>50711</v>
       </c>
       <c r="C30">
-        <v>848</v>
+        <v>680</v>
       </c>
       <c r="D30">
-        <v>1267</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>5753</v>
+        <v>5819</v>
       </c>
       <c r="B31">
-        <v>59308</v>
+        <v>59354</v>
       </c>
       <c r="C31">
-        <v>362</v>
+        <v>296</v>
       </c>
       <c r="D31">
-        <v>113</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -824,7 +1913,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,784 +1941,815 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f>Brut!A2/Brut!$M$3</f>
-        <v>6.6162109375E-2</v>
+        <v>5.8990478515625E-2</v>
       </c>
       <c r="B2" s="1">
         <f>Brut!B2/Brut!$M$3</f>
-        <v>0.91070556640625</v>
+        <v>0.9156951904296875</v>
       </c>
       <c r="C2" s="1">
         <f>Brut!C2/Brut!$M$3</f>
-        <v>1.74407958984375E-2</v>
+        <v>2.46124267578125E-2</v>
       </c>
       <c r="D2" s="1">
         <f>Brut!D2/Brut!$M$3</f>
-        <v>5.6915283203125E-3</v>
-      </c>
+        <v>7.01904296875E-4</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="2">
         <f>A2+B2</f>
-        <v>0.97686767578125</v>
+        <v>0.9746856689453125</v>
       </c>
       <c r="G2" s="2">
         <f>C2+D2</f>
-        <v>2.313232421875E-2</v>
+        <v>2.53143310546875E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>Brut!A3/Brut!$M$3</f>
-        <v>0.1328277587890625</v>
+        <v>0.134307861328125</v>
       </c>
       <c r="B3" s="1">
         <f>Brut!B3/Brut!$M$3</f>
-        <v>0.8562469482421875</v>
+        <v>0.8575897216796875</v>
       </c>
       <c r="C3" s="1">
         <f>Brut!C3/Brut!$M$3</f>
-        <v>8.4381103515625E-3</v>
+        <v>6.9580078125E-3</v>
       </c>
       <c r="D3" s="1">
         <f>Brut!D3/Brut!$M$3</f>
-        <v>2.4871826171875E-3</v>
-      </c>
+        <v>1.1444091796875E-3</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="2">
         <f t="shared" ref="F3:F31" si="0">A3+B3</f>
-        <v>0.98907470703125</v>
+        <v>0.9918975830078125</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" ref="G3:G31" si="1">C3+D3</f>
-        <v>1.092529296875E-2</v>
+        <v>8.1024169921875E-3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>Brut!A4/Brut!$M$3</f>
-        <v>0.1384735107421875</v>
+        <v>0.14288330078125</v>
       </c>
       <c r="B4" s="1">
         <f>Brut!B4/Brut!$M$3</f>
-        <v>0.8441314697265625</v>
+        <v>0.84759521484375</v>
       </c>
       <c r="C4" s="1">
         <f>Brut!C4/Brut!$M$3</f>
-        <v>1.19171142578125E-2</v>
+        <v>7.50732421875E-3</v>
       </c>
       <c r="D4" s="1">
         <f>Brut!D4/Brut!$M$3</f>
-        <v>5.4779052734375E-3</v>
-      </c>
+        <v>2.01416015625E-3</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0.98260498046875</v>
+        <v>0.990478515625</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="1"/>
-        <v>1.739501953125E-2</v>
+        <v>9.521484375E-3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f>Brut!A5/Brut!$M$3</f>
-        <v>0.1508331298828125</v>
+        <v>0.1493988037109375</v>
       </c>
       <c r="B5" s="1">
         <f>Brut!B5/Brut!$M$3</f>
-        <v>0.830474853515625</v>
+        <v>0.83465576171875</v>
       </c>
       <c r="C5" s="1">
         <f>Brut!C5/Brut!$M$3</f>
-        <v>1.1505126953125E-2</v>
+        <v>1.2939453125E-2</v>
       </c>
       <c r="D5" s="1">
         <f>Brut!D5/Brut!$M$3</f>
-        <v>7.1868896484375E-3</v>
-      </c>
+        <v>3.0059814453125E-3</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0.9813079833984375</v>
+        <v>0.9840545654296875</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="1"/>
-        <v>1.86920166015625E-2</v>
+        <v>1.59454345703125E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f>Brut!A6/Brut!$M$3</f>
-        <v>2.4078369140625E-2</v>
+        <v>2.5909423828125E-2</v>
       </c>
       <c r="B6" s="1">
         <f>Brut!B6/Brut!$M$3</f>
-        <v>0.9706573486328125</v>
+        <v>0.9710845947265625</v>
       </c>
       <c r="C6" s="1">
         <f>Brut!C6/Brut!$M$3</f>
-        <v>4.1961669921875E-3</v>
+        <v>2.3651123046875E-3</v>
       </c>
       <c r="D6" s="1">
         <f>Brut!D6/Brut!$M$3</f>
-        <v>1.068115234375E-3</v>
-      </c>
+        <v>6.40869140625E-4</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>0.9947357177734375</v>
+        <v>0.9969940185546875</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="1"/>
-        <v>5.2642822265625E-3</v>
+        <v>3.0059814453125E-3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f>Brut!A7/Brut!$M$3</f>
-        <v>0.1439666748046875</v>
+        <v>0.1478118896484375</v>
       </c>
       <c r="B7" s="1">
         <f>Brut!B7/Brut!$M$3</f>
-        <v>0.8428192138671875</v>
+        <v>0.841949462890625</v>
       </c>
       <c r="C7" s="1">
         <f>Brut!C7/Brut!$M$3</f>
-        <v>1.27716064453125E-2</v>
+        <v>8.9263916015625E-3</v>
       </c>
       <c r="D7" s="1">
         <f>Brut!D7/Brut!$M$3</f>
-        <v>4.425048828125E-4</v>
-      </c>
+        <v>1.312255859375E-3</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.986785888671875</v>
+        <v>0.9897613525390625</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="1"/>
-        <v>1.3214111328125E-2</v>
+        <v>1.02386474609375E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f>Brut!A8/Brut!$M$3</f>
-        <v>3.30352783203125E-2</v>
+        <v>3.45611572265625E-2</v>
       </c>
       <c r="B8" s="1">
         <f>Brut!B8/Brut!$M$3</f>
-        <v>0.94915771484375</v>
+        <v>0.9515228271484375</v>
       </c>
       <c r="C8" s="1">
         <f>Brut!C8/Brut!$M$3</f>
-        <v>1.35498046875E-2</v>
+        <v>1.202392578125E-2</v>
       </c>
       <c r="D8" s="1">
         <f>Brut!D8/Brut!$M$3</f>
-        <v>4.2572021484375E-3</v>
-      </c>
+        <v>1.89208984375E-3</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0.9821929931640625</v>
+        <v>0.986083984375</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="1"/>
-        <v>1.78070068359375E-2</v>
+        <v>1.3916015625E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f>Brut!A9/Brut!$M$3</f>
-        <v>1.1474609375E-2</v>
+        <v>1.17340087890625E-2</v>
       </c>
       <c r="B9" s="1">
         <f>Brut!B9/Brut!$M$3</f>
-        <v>0.9813232421875</v>
+        <v>0.981536865234375</v>
       </c>
       <c r="C9" s="1">
         <f>Brut!C9/Brut!$M$3</f>
-        <v>6.9427490234375E-3</v>
+        <v>6.683349609375E-3</v>
       </c>
       <c r="D9" s="1">
         <f>Brut!D9/Brut!$M$3</f>
-        <v>2.593994140625E-4</v>
-      </c>
+        <v>4.57763671875E-5</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0.9927978515625</v>
+        <v>0.9932708740234375</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="1"/>
-        <v>7.2021484375E-3</v>
+        <v>6.7291259765625E-3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f>Brut!A10/Brut!$M$3</f>
-        <v>0.175018310546875</v>
+        <v>0.1495819091796875</v>
       </c>
       <c r="B10" s="1">
         <f>Brut!B10/Brut!$M$3</f>
-        <v>0.768585205078125</v>
+        <v>0.811065673828125</v>
       </c>
       <c r="C10" s="1">
         <f>Brut!C10/Brut!$M$3</f>
-        <v>1.17645263671875E-2</v>
+        <v>3.7200927734375E-2</v>
       </c>
       <c r="D10" s="1">
         <f>Brut!D10/Brut!$M$3</f>
-        <v>4.46319580078125E-2</v>
-      </c>
+        <v>2.1514892578125E-3</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>0.943603515625</v>
+        <v>0.9606475830078125</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="1"/>
-        <v>5.6396484375E-2</v>
+        <v>3.93524169921875E-2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f>Brut!A11/Brut!$M$3</f>
-        <v>2.5787353515625E-2</v>
+        <v>2.813720703125E-2</v>
       </c>
       <c r="B11" s="1">
         <f>Brut!B11/Brut!$M$3</f>
-        <v>0.955902099609375</v>
+        <v>0.95611572265625</v>
       </c>
       <c r="C11" s="1">
         <f>Brut!C11/Brut!$M$3</f>
-        <v>1.70745849609375E-2</v>
+        <v>1.47247314453125E-2</v>
       </c>
       <c r="D11" s="1">
         <f>Brut!D11/Brut!$M$3</f>
-        <v>1.2359619140625E-3</v>
-      </c>
+        <v>1.0223388671875E-3</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>0.981689453125</v>
+        <v>0.9842529296875</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="1"/>
-        <v>1.8310546875E-2</v>
+        <v>1.57470703125E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f>Brut!A12/Brut!$M$3</f>
-        <v>4.2388916015625E-2</v>
+        <v>4.632568359375E-2</v>
       </c>
       <c r="B12" s="1">
         <f>Brut!B12/Brut!$M$3</f>
-        <v>0.950164794921875</v>
+        <v>0.9519500732421875</v>
       </c>
       <c r="C12" s="1">
         <f>Brut!C12/Brut!$M$3</f>
-        <v>5.2490234375E-3</v>
+        <v>1.312255859375E-3</v>
       </c>
       <c r="D12" s="1">
         <f>Brut!D12/Brut!$M$3</f>
-        <v>2.197265625E-3</v>
-      </c>
+        <v>4.119873046875E-4</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>0.9925537109375</v>
+        <v>0.9982757568359375</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="1"/>
-        <v>7.4462890625E-3</v>
+        <v>1.7242431640625E-3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f>Brut!A13/Brut!$M$3</f>
-        <v>6.195068359375E-3</v>
+        <v>6.9427490234375E-3</v>
       </c>
       <c r="B13" s="1">
         <f>Brut!B13/Brut!$M$3</f>
-        <v>0.987274169921875</v>
+        <v>0.987457275390625</v>
       </c>
       <c r="C13" s="1">
         <f>Brut!C13/Brut!$M$3</f>
-        <v>6.34765625E-3</v>
+        <v>5.5999755859375E-3</v>
       </c>
       <c r="D13" s="1">
         <f>Brut!D13/Brut!$M$3</f>
-        <v>1.8310546875E-4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>0.99346923828125</v>
+        <v>0.9944000244140625</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="1"/>
-        <v>6.53076171875E-3</v>
+        <v>5.5999755859375E-3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f>Brut!A14/Brut!$M$3</f>
-        <v>7.71942138671875E-2</v>
+        <v>7.9193115234375E-2</v>
       </c>
       <c r="B14" s="1">
         <f>Brut!B14/Brut!$M$3</f>
-        <v>0.8764495849609375</v>
+        <v>0.9010162353515625</v>
       </c>
       <c r="C14" s="1">
         <f>Brut!C14/Brut!$M$3</f>
-        <v>2.00653076171875E-2</v>
+        <v>1.806640625E-2</v>
       </c>
       <c r="D14" s="1">
         <f>Brut!D14/Brut!$M$3</f>
-        <v>2.62908935546875E-2</v>
-      </c>
+        <v>1.7242431640625E-3</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>0.953643798828125</v>
+        <v>0.9802093505859375</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="1"/>
-        <v>4.6356201171875E-2</v>
+        <v>1.97906494140625E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f>Brut!A15/Brut!$M$3</f>
-        <v>0.129669189453125</v>
+        <v>0.1307830810546875</v>
       </c>
       <c r="B15" s="1">
         <f>Brut!B15/Brut!$M$3</f>
-        <v>0.8512115478515625</v>
+        <v>0.8574676513671875</v>
       </c>
       <c r="C15" s="1">
         <f>Brut!C15/Brut!$M$3</f>
-        <v>1.239013671875E-2</v>
+        <v>1.12762451171875E-2</v>
       </c>
       <c r="D15" s="1">
         <f>Brut!D15/Brut!$M$3</f>
-        <v>6.7291259765625E-3</v>
-      </c>
+        <v>4.730224609375E-4</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>0.9808807373046875</v>
+        <v>0.988250732421875</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="1"/>
-        <v>1.91192626953125E-2</v>
+        <v>1.1749267578125E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f>Brut!A16/Brut!$M$3</f>
-        <v>2.84423828125E-2</v>
+        <v>3.11431884765625E-2</v>
       </c>
       <c r="B16" s="1">
         <f>Brut!B16/Brut!$M$3</f>
-        <v>0.960693359375</v>
+        <v>0.961151123046875</v>
       </c>
       <c r="C16" s="1">
         <f>Brut!C16/Brut!$M$3</f>
-        <v>1.02691650390625E-2</v>
+        <v>7.568359375E-3</v>
       </c>
       <c r="D16" s="1">
         <f>Brut!D16/Brut!$M$3</f>
-        <v>5.950927734375E-4</v>
-      </c>
+        <v>1.373291015625E-4</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>0.9891357421875</v>
+        <v>0.9922943115234375</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="1"/>
-        <v>1.08642578125E-2</v>
+        <v>7.7056884765625E-3</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f>Brut!A17/Brut!$M$3</f>
-        <v>0.294036865234375</v>
+        <v>0.2818756103515625</v>
       </c>
       <c r="B17" s="1">
         <f>Brut!B17/Brut!$M$3</f>
-        <v>0.678314208984375</v>
+        <v>0.688690185546875</v>
       </c>
       <c r="C17" s="1">
         <f>Brut!C17/Brut!$M$3</f>
-        <v>1.373291015625E-2</v>
+        <v>2.58941650390625E-2</v>
       </c>
       <c r="D17" s="1">
         <f>Brut!D17/Brut!$M$3</f>
-        <v>1.3916015625E-2</v>
-      </c>
+        <v>3.5400390625E-3</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
-        <v>0.97235107421875</v>
+        <v>0.9705657958984375</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="1"/>
-        <v>2.764892578125E-2</v>
+        <v>2.94342041015625E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f>Brut!A18/Brut!$M$3</f>
-        <v>0.158721923828125</v>
+        <v>0.1611480712890625</v>
       </c>
       <c r="B18" s="1">
         <f>Brut!B18/Brut!$M$3</f>
-        <v>0.8202972412109375</v>
+        <v>0.821685791015625</v>
       </c>
       <c r="C18" s="1">
         <f>Brut!C18/Brut!$M$3</f>
-        <v>1.70440673828125E-2</v>
+        <v>1.4617919921875E-2</v>
       </c>
       <c r="D18" s="1">
         <f>Brut!D18/Brut!$M$3</f>
-        <v>3.936767578125E-3</v>
-      </c>
+        <v>2.5482177734375E-3</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" s="2">
         <f t="shared" si="0"/>
-        <v>0.9790191650390625</v>
+        <v>0.9828338623046875</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="1"/>
-        <v>2.09808349609375E-2</v>
+        <v>1.71661376953125E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f>Brut!A19/Brut!$M$3</f>
-        <v>1.4251708984375E-2</v>
+        <v>1.95770263671875E-2</v>
       </c>
       <c r="B19" s="1">
         <f>Brut!B19/Brut!$M$3</f>
-        <v>0.9667205810546875</v>
+        <v>0.96630859375</v>
       </c>
       <c r="C19" s="1">
         <f>Brut!C19/Brut!$M$3</f>
-        <v>1.88751220703125E-2</v>
+        <v>1.35498046875E-2</v>
       </c>
       <c r="D19" s="1">
         <f>Brut!D19/Brut!$M$3</f>
-        <v>1.52587890625E-4</v>
-      </c>
+        <v>5.645751953125E-4</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
-        <v>0.9809722900390625</v>
+        <v>0.9858856201171875</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="1"/>
-        <v>1.90277099609375E-2</v>
+        <v>1.41143798828125E-2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f>Brut!A20/Brut!$M$3</f>
-        <v>5.00946044921875E-2</v>
+        <v>5.316162109375E-2</v>
       </c>
       <c r="B20" s="1">
         <f>Brut!B20/Brut!$M$3</f>
-        <v>0.9298553466796875</v>
+        <v>0.9317474365234375</v>
       </c>
       <c r="C20" s="1">
         <f>Brut!C20/Brut!$M$3</f>
-        <v>1.7242431640625E-2</v>
+        <v>1.41754150390625E-2</v>
       </c>
       <c r="D20" s="1">
         <f>Brut!D20/Brut!$M$3</f>
-        <v>2.8076171875E-3</v>
-      </c>
+        <v>9.1552734375E-4</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>0.979949951171875</v>
+        <v>0.9849090576171875</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="1"/>
-        <v>2.0050048828125E-2</v>
+        <v>1.50909423828125E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f>Brut!A21/Brut!$M$3</f>
-        <v>0.1466522216796875</v>
+        <v>7.37762451171875E-2</v>
       </c>
       <c r="B21" s="1">
         <f>Brut!B21/Brut!$M$3</f>
-        <v>0.79083251953125</v>
+        <v>0.828033447265625</v>
       </c>
       <c r="C21" s="1">
         <f>Brut!C21/Brut!$M$3</f>
-        <v>2.52838134765625E-2</v>
+        <v>9.81597900390625E-2</v>
       </c>
       <c r="D21" s="1">
         <f>Brut!D21/Brut!$M$3</f>
-        <v>3.72314453125E-2</v>
-      </c>
+        <v>3.0517578125E-5</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="2">
         <f t="shared" si="0"/>
-        <v>0.9374847412109375</v>
+        <v>0.9018096923828125</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="1"/>
-        <v>6.25152587890625E-2</v>
+        <v>9.81903076171875E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f>Brut!A22/Brut!$M$3</f>
-        <v>6.695556640625E-2</v>
+        <v>4.78363037109375E-2</v>
       </c>
       <c r="B22" s="1">
         <f>Brut!B22/Brut!$M$3</f>
-        <v>0.8838348388671875</v>
+        <v>0.888702392578125</v>
       </c>
       <c r="C22" s="1">
         <f>Brut!C22/Brut!$M$3</f>
-        <v>4.29534912109375E-2</v>
+        <v>6.207275390625E-2</v>
       </c>
       <c r="D22" s="1">
         <f>Brut!D22/Brut!$M$3</f>
-        <v>6.256103515625E-3</v>
-      </c>
+        <v>1.3885498046875E-3</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>0.9507904052734375</v>
+        <v>0.9365386962890625</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="1"/>
-        <v>4.92095947265625E-2</v>
+        <v>6.34613037109375E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f>Brut!A23/Brut!$M$3</f>
-        <v>0.1077728271484375</v>
+        <v>0.1052703857421875</v>
       </c>
       <c r="B23" s="1">
         <f>Brut!B23/Brut!$M$3</f>
-        <v>0.875823974609375</v>
+        <v>0.8806915283203125</v>
       </c>
       <c r="C23" s="1">
         <f>Brut!C23/Brut!$M$3</f>
-        <v>1.0498046875E-2</v>
+        <v>1.300048828125E-2</v>
       </c>
       <c r="D23" s="1">
         <f>Brut!D23/Brut!$M$3</f>
-        <v>5.9051513671875E-3</v>
-      </c>
+        <v>1.03759765625E-3</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>0.9835968017578125</v>
+        <v>0.9859619140625</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="1"/>
-        <v>1.64031982421875E-2</v>
+        <v>1.40380859375E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f>Brut!A24/Brut!$M$3</f>
-        <v>0.20233154296875</v>
+        <v>0.1897430419921875</v>
       </c>
       <c r="B24" s="1">
         <f>Brut!B24/Brut!$M$3</f>
-        <v>0.752655029296875</v>
+        <v>0.7719879150390625</v>
       </c>
       <c r="C24" s="1">
         <f>Brut!C24/Brut!$M$3</f>
-        <v>2.2979736328125E-2</v>
+        <v>3.55682373046875E-2</v>
       </c>
       <c r="D24" s="1">
         <f>Brut!D24/Brut!$M$3</f>
-        <v>2.203369140625E-2</v>
-      </c>
+        <v>2.7008056640625E-3</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" s="2">
         <f t="shared" si="0"/>
-        <v>0.954986572265625</v>
+        <v>0.96173095703125</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="1"/>
-        <v>4.5013427734375E-2</v>
+        <v>3.826904296875E-2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f>Brut!A25/Brut!$M$3</f>
-        <v>4.9072265625E-2</v>
+        <v>5.15289306640625E-2</v>
       </c>
       <c r="B25" s="1">
         <f>Brut!B25/Brut!$M$3</f>
-        <v>0.93572998046875</v>
+        <v>0.9360809326171875</v>
       </c>
       <c r="C25" s="1">
         <f>Brut!C25/Brut!$M$3</f>
-        <v>1.385498046875E-2</v>
+        <v>1.13983154296875E-2</v>
       </c>
       <c r="D25" s="1">
         <f>Brut!D25/Brut!$M$3</f>
-        <v>1.3427734375E-3</v>
-      </c>
+        <v>9.918212890625E-4</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="F25" s="2">
         <f t="shared" si="0"/>
-        <v>0.98480224609375</v>
+        <v>0.98760986328125</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="1"/>
-        <v>1.519775390625E-2</v>
+        <v>1.239013671875E-2</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f>Brut!A26/Brut!$M$3</f>
-        <v>6.890869140625E-2</v>
+        <v>7.1044921875E-2</v>
       </c>
       <c r="B26" s="1">
         <f>Brut!B26/Brut!$M$3</f>
-        <v>0.922210693359375</v>
+        <v>0.9236297607421875</v>
       </c>
       <c r="C26" s="1">
         <f>Brut!C26/Brut!$M$3</f>
-        <v>6.927490234375E-3</v>
+        <v>4.791259765625E-3</v>
       </c>
       <c r="D26" s="1">
         <f>Brut!D26/Brut!$M$3</f>
-        <v>1.953125E-3</v>
-      </c>
+        <v>5.340576171875E-4</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="F26" s="2">
         <f t="shared" si="0"/>
-        <v>0.991119384765625</v>
+        <v>0.9946746826171875</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" si="1"/>
-        <v>8.880615234375E-3</v>
+        <v>5.3253173828125E-3</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f>Brut!A27/Brut!$M$3</f>
-        <v>4.87213134765625E-2</v>
+        <v>4.7698974609375E-2</v>
       </c>
       <c r="B27" s="1">
         <f>Brut!B27/Brut!$M$3</f>
-        <v>0.9428558349609375</v>
+        <v>0.944244384765625</v>
       </c>
       <c r="C27" s="1">
         <f>Brut!C27/Brut!$M$3</f>
-        <v>6.53076171875E-3</v>
+        <v>7.5531005859375E-3</v>
       </c>
       <c r="D27" s="1">
         <f>Brut!D27/Brut!$M$3</f>
-        <v>1.89208984375E-3</v>
-      </c>
+        <v>5.035400390625E-4</v>
+      </c>
+      <c r="E27" s="2"/>
       <c r="F27" s="2">
         <f t="shared" si="0"/>
-        <v>0.9915771484375</v>
+        <v>0.991943359375</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" si="1"/>
-        <v>8.4228515625E-3</v>
+        <v>8.056640625E-3</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f>Brut!A28/Brut!$M$3</f>
-        <v>0.1401519775390625</v>
+        <v>0.1382598876953125</v>
       </c>
       <c r="B28" s="1">
         <f>Brut!B28/Brut!$M$3</f>
-        <v>0.848785400390625</v>
+        <v>0.8518829345703125</v>
       </c>
       <c r="C28" s="1">
         <f>Brut!C28/Brut!$M$3</f>
-        <v>6.591796875E-3</v>
+        <v>8.48388671875E-3</v>
       </c>
       <c r="D28" s="1">
         <f>Brut!D28/Brut!$M$3</f>
-        <v>4.4708251953125E-3</v>
-      </c>
+        <v>1.373291015625E-3</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" s="2">
         <f t="shared" si="0"/>
-        <v>0.9889373779296875</v>
+        <v>0.990142822265625</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" si="1"/>
-        <v>1.10626220703125E-2</v>
+        <v>9.857177734375E-3</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f>Brut!A29/Brut!$M$3</f>
-        <v>9.41162109375E-2</v>
+        <v>9.161376953125E-2</v>
       </c>
       <c r="B29" s="1">
         <f>Brut!B29/Brut!$M$3</f>
-        <v>0.888092041015625</v>
+        <v>0.89263916015625</v>
       </c>
       <c r="C29" s="1">
         <f>Brut!C29/Brut!$M$3</f>
-        <v>1.21307373046875E-2</v>
+        <v>1.46331787109375E-2</v>
       </c>
       <c r="D29" s="1">
         <f>Brut!D29/Brut!$M$3</f>
-        <v>5.6610107421875E-3</v>
-      </c>
+        <v>1.1138916015625E-3</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="2">
         <f t="shared" si="0"/>
-        <v>0.982208251953125</v>
+        <v>0.9842529296875</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" si="1"/>
-        <v>1.7791748046875E-2</v>
+        <v>1.57470703125E-2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f>Brut!A30/Brut!$M$3</f>
-        <v>0.2111053466796875</v>
+        <v>0.2136688232421875</v>
       </c>
       <c r="B30" s="1">
         <f>Brut!B30/Brut!$M$3</f>
-        <v>0.756622314453125</v>
+        <v>0.7737884521484375</v>
       </c>
       <c r="C30" s="1">
         <f>Brut!C30/Brut!$M$3</f>
-        <v>1.2939453125E-2</v>
+        <v>1.03759765625E-2</v>
       </c>
       <c r="D30" s="1">
         <f>Brut!D30/Brut!$M$3</f>
-        <v>1.93328857421875E-2</v>
-      </c>
+        <v>2.166748046875E-3</v>
+      </c>
+      <c r="E30" s="2"/>
       <c r="F30" s="2">
         <f t="shared" si="0"/>
-        <v>0.9677276611328125</v>
+        <v>0.987457275390625</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" si="1"/>
-        <v>3.22723388671875E-2</v>
+        <v>1.2542724609375E-2</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f>Brut!A31/Brut!$M$3</f>
-        <v>8.77838134765625E-2</v>
+        <v>8.87908935546875E-2</v>
       </c>
       <c r="B31" s="1">
         <f>Brut!B31/Brut!$M$3</f>
-        <v>0.90496826171875</v>
+        <v>0.905670166015625</v>
       </c>
       <c r="C31" s="1">
         <f>Brut!C31/Brut!$M$3</f>
-        <v>5.523681640625E-3</v>
+        <v>4.5166015625E-3</v>
       </c>
       <c r="D31" s="1">
         <f>Brut!D31/Brut!$M$3</f>
-        <v>1.7242431640625E-3</v>
-      </c>
+        <v>1.0223388671875E-3</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31" s="2">
         <f t="shared" si="0"/>
-        <v>0.9927520751953125</v>
+        <v>0.9944610595703125</v>
       </c>
       <c r="G31" s="2">
         <f t="shared" si="1"/>
-        <v>7.2479248046875E-3</v>
+        <v>5.5389404296875E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>